--- a/Plannings de la semaine/Planning réel.xlsx
+++ b/Plannings de la semaine/Planning réel.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\Cours Exia\Projet-Exia-Ces-Esport\Plannings de la semaine\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="C81844457A69F768113D598D488A2C257FF815AC" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{0CEC16A2-AD5B-42A0-8E9B-0115F9AE9DEE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de tâches" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Liste de tâches'!$A$3:$C$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Liste de tâches'!$A$3:$C$53</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t xml:space="preserve">
 Liste de tâches</t>
@@ -62,9 +63,6 @@
   </si>
   <si>
     <t>Tous</t>
-  </si>
-  <si>
-    <t>Calcul des pertes du rapport Signal/Bruit etc</t>
   </si>
   <si>
     <t>Charles</t>
@@ -153,7 +151,7 @@
     <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm"/>
     <numFmt numFmtId="165" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -192,12 +190,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -343,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -376,18 +368,15 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -395,16 +384,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -750,11 +739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -767,13 +756,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="52.5" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1" t="str">
-        <f>CONCATENATE(COUNTA($A$5:$A$54), "/", COUNTA($C$5:$C$54), " terminée(s)  ")</f>
-        <v xml:space="preserve">20/21 terminée(s)  </v>
+        <f>CONCATENATE(COUNTA($A$5:$A$53), "/", COUNTA($C$5:$C$53), " terminée(s)  ")</f>
+        <v xml:space="preserve">19/20 terminée(s)  </v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -854,87 +843,87 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="E8" s="21">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="16" t="s">
+    <row r="9" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="E11" s="23">
         <v>100</v>
       </c>
     </row>
@@ -942,93 +931,93 @@
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="24">
+      <c r="D12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="26">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="27">
+      <c r="D13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="13">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="E16" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E15" s="8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>29</v>
@@ -1037,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1">
@@ -1045,15 +1034,15 @@
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="C18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13">
         <v>100</v>
       </c>
     </row>
@@ -1062,15 +1051,15 @@
         <v>3</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1079,304 +1068,287 @@
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="8">
-        <v>100</v>
-      </c>
+      <c r="D20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" ht="26.25" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="13"/>
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8">
-        <v>80</v>
-      </c>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="26.25" customHeight="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="26.25" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" ht="26.25" customHeight="1">
       <c r="A27" s="9"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="26.25" customHeight="1">
       <c r="A28" s="9"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5" ht="26.25" customHeight="1">
       <c r="A29" s="9"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" ht="26.25" customHeight="1">
       <c r="A30" s="9"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" ht="26.25" customHeight="1">
       <c r="A31" s="9"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" ht="26.25" customHeight="1">
       <c r="A32" s="9"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" spans="1:5" ht="26.25" customHeight="1">
       <c r="A33" s="9"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5" ht="26.25" customHeight="1">
       <c r="A34" s="9"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
     </row>
     <row r="35" spans="1:5" ht="26.25" customHeight="1">
       <c r="A35" s="9"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
     </row>
     <row r="36" spans="1:5" ht="26.25" customHeight="1">
       <c r="A36" s="9"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
     </row>
     <row r="37" spans="1:5" ht="26.25" customHeight="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:5" ht="26.25" customHeight="1">
       <c r="A38" s="9"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
     </row>
     <row r="39" spans="1:5" ht="26.25" customHeight="1">
       <c r="A39" s="9"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
     </row>
     <row r="40" spans="1:5" ht="26.25" customHeight="1">
       <c r="A40" s="9"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
     </row>
     <row r="41" spans="1:5" ht="26.25" customHeight="1">
       <c r="A41" s="9"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
     </row>
     <row r="42" spans="1:5" ht="26.25" customHeight="1">
       <c r="A42" s="9"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
     </row>
     <row r="43" spans="1:5" ht="26.25" customHeight="1">
       <c r="A43" s="9"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
     </row>
     <row r="44" spans="1:5" ht="26.25" customHeight="1">
       <c r="A44" s="9"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
     </row>
     <row r="45" spans="1:5" ht="26.25" customHeight="1">
       <c r="A45" s="9"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
     </row>
     <row r="46" spans="1:5" ht="26.25" customHeight="1">
       <c r="A46" s="9"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
     </row>
     <row r="47" spans="1:5" ht="26.25" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
     </row>
     <row r="48" spans="1:5" ht="26.25" customHeight="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
     </row>
     <row r="49" spans="1:5" ht="26.25" customHeight="1">
       <c r="A49" s="9"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
     </row>
     <row r="50" spans="1:5" ht="26.25" customHeight="1">
       <c r="A50" s="9"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
     </row>
     <row r="51" spans="1:5" ht="26.25" customHeight="1">
       <c r="A51" s="9"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
     </row>
     <row r="52" spans="1:5" ht="26.25" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-    </row>
-    <row r="53" spans="1:5" ht="26.25" customHeight="1">
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="1:5" ht="22.5" hidden="1" customHeight="1">
       <c r="A53" s="9"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-    </row>
-    <row r="54" spans="1:5" ht="22.5" hidden="1" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:C53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:XFD7 A8:XFD8 A9:XFD9 A10:XFD25 A26:XFD54">
+  <conditionalFormatting sqref="A4:XFD53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISBLANK($A4))</formula>
     </cfRule>
